--- a/FINAL-WORKING-test.xlsx
+++ b/FINAL-WORKING-test.xlsx
@@ -9961,32 +9961,26 @@
       <c r="C9" s="575"/>
       <c r="D9" s="575"/>
       <c r="E9" s="575"/>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="576" t="inlineStr">
         <is>
-          <t>FINAL XML SUCCESS</t>
+          <t>VÉGSŐ TESZT</t>
         </is>
-      </c>
-      <c r="G9" s="576"/>
-      <c r="H9" s="576"/>
-      <c r="I9" s="576"/>
-      <c r="J9" s="576"/>
-      <c r="K9" s="575" t="s">
-        <v>7</v>
       </c>
       <c r="L9" s="575"/>
       <c r="M9" s="575"/>
       <c r="N9" s="575"/>
       <c r="O9" s="575"/>
       <c r="P9" s="575"/>
-      <c r="Q9" t="inlineStr">
+      <c r="Q9" s="577" t="inlineStr">
         <is>
-          <t>FINAL XML TECH</t>
+          <t>MINDEN KÉSZ</t>
         </is>
       </c>
-      <c r="R9" s="577"/>
-      <c r="S9" s="577"/>
-      <c r="T9" s="577"/>
-      <c r="U9" s="28"/>
+      <c r="Q9" s="577" t="inlineStr">
+        <is>
+          <t>MINDEN KÉSZ</t>
+        </is>
+      </c>
     </row>
     <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
@@ -10072,31 +10066,24 @@
       <c r="F13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G13" s="577" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>2025</t>
         </is>
-      </c>
-      <c r="H13" s="577"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40" t="s">
-        <v>12</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="577"/>
       <c r="P13" s="577"/>
-      <c r="Q13" t="inlineStr">
+      <c r="Q13" s="577" t="inlineStr">
         <is>
-          <t>FINAL XML CITY</t>
+          <t>Lüfasz</t>
         </is>
       </c>
-      <c r="R13" s="577"/>
-      <c r="S13" s="577"/>
-      <c r="T13" s="577"/>
-      <c r="U13" s="22"/>
+      <c r="Q13" s="579" t="inlineStr">
+        <is>
+          <t>Lüfasz</t>
+        </is>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -10107,31 +10094,21 @@
       <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G14" s="577" t="inlineStr">
         <is>
-          <t>FINAL XML STREET</t>
+          <t>BEFEJEZETT</t>
         </is>
       </c>
-      <c r="H14" s="577"/>
-      <c r="I14" s="577"/>
-      <c r="J14" s="577"/>
-      <c r="K14" s="577"/>
-      <c r="L14" s="577"/>
-      <c r="M14" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="N14" s="583" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>100</t>
         </is>
       </c>
-      <c r="O14" s="583"/>
-      <c r="P14" s="583"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="22"/>
+      <c r="N14" s="581" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
     </row>
     <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
@@ -10173,32 +10150,10 @@
       </c>
       <c r="M16" s="585"/>
       <c r="N16" s="585"/>
-      <c r="O16" t="inlineStr">
+      <c r="O16" s="577" t="inlineStr">
         <is>
-          <t>FINAL-XML-LIFT-SUCCESS</t>
+          <t>FINAL-PRODUCTION</t>
         </is>
-      </c>
-      <c r="P16" s="577"/>
-      <c r="Q16" s="577"/>
-      <c r="R16" s="577"/>
-      <c r="S16" s="577"/>
-      <c r="T16" s="577"/>
-      <c r="U16" s="22"/>
-    </row>
-    <row r="17" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="585" t="s">
-        <v>1200</v>
       </c>
       <c r="M17" s="585"/>
       <c r="N17" s="585"/>
@@ -10211,6 +10166,11 @@
       <c r="S17" s="577"/>
       <c r="T17" s="577"/>
       <c r="U17" s="22"/>
+      <c r="O16" s="582" t="inlineStr">
+        <is>
+          <t>FINAL-PRODUCTION</t>
+        </is>
+      </c>
     </row>
     <row r="18" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
@@ -10454,8 +10414,10 @@
       <c r="N25" s="587"/>
       <c r="O25" s="587"/>
       <c r="P25" s="587"/>
-      <c r="Q25" s="61" t="s">
-        <v>34</v>
+      <c r="Q25" s="61" t="inlineStr">
+        <is>
+          <t>Igen</t>
+        </is>
       </c>
       <c r="R25" s="586" t="s">
         <v>26</v>
@@ -10483,6 +10445,11 @@
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="22"/>
+      <c r="Q25" s="583" t="inlineStr">
+        <is>
+          <t>Igen</t>
+        </is>
+      </c>
     </row>
     <row r="26" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -12462,8 +12429,10 @@
       <c r="U67" s="28"/>
     </row>
     <row r="68" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="93" t="s">
-        <v>34</v>
+      <c r="A68" s="93" t="inlineStr">
+        <is>
+          <t>Nem</t>
+        </is>
       </c>
       <c r="B68" s="94"/>
       <c r="C68" s="95"/>
@@ -12493,6 +12462,11 @@
       <c r="S68" s="597"/>
       <c r="T68" s="597"/>
       <c r="U68" s="597"/>
+      <c r="A68" s="584" t="inlineStr">
+        <is>
+          <t>Nem</t>
+        </is>
+      </c>
     </row>
     <row r="69" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="598" t="s">

--- a/FINAL-WORKING-test.xlsx
+++ b/FINAL-WORKING-test.xlsx
@@ -9961,26 +9961,32 @@
       <c r="C9" s="575"/>
       <c r="D9" s="575"/>
       <c r="E9" s="575"/>
-      <c r="F9" s="576" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
-          <t>VÉGSŐ TESZT</t>
+          <t>FINAL XML SUCCESS</t>
         </is>
+      </c>
+      <c r="G9" s="576"/>
+      <c r="H9" s="576"/>
+      <c r="I9" s="576"/>
+      <c r="J9" s="576"/>
+      <c r="K9" s="575" t="s">
+        <v>7</v>
       </c>
       <c r="L9" s="575"/>
       <c r="M9" s="575"/>
       <c r="N9" s="575"/>
       <c r="O9" s="575"/>
       <c r="P9" s="575"/>
-      <c r="Q9" s="577" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
-          <t>MINDEN KÉSZ</t>
+          <t>FINAL XML TECH</t>
         </is>
       </c>
-      <c r="Q9" s="577" t="inlineStr">
-        <is>
-          <t>MINDEN KÉSZ</t>
-        </is>
-      </c>
+      <c r="R9" s="577"/>
+      <c r="S9" s="577"/>
+      <c r="T9" s="577"/>
+      <c r="U9" s="28"/>
     </row>
     <row r="10" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
@@ -10066,24 +10072,31 @@
       <c r="F13" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="577" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>8888</t>
         </is>
+      </c>
+      <c r="H13" s="577"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="40"/>
+      <c r="M13" s="40" t="s">
+        <v>12</v>
       </c>
       <c r="N13" s="42"/>
       <c r="O13" s="577"/>
       <c r="P13" s="577"/>
-      <c r="Q13" s="577" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
-          <t>Lüfasz</t>
+          <t>FINAL XML CITY</t>
         </is>
       </c>
-      <c r="Q13" s="579" t="inlineStr">
-        <is>
-          <t>Lüfasz</t>
-        </is>
-      </c>
+      <c r="R13" s="577"/>
+      <c r="S13" s="577"/>
+      <c r="T13" s="577"/>
+      <c r="U13" s="22"/>
     </row>
     <row r="14" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
@@ -10094,21 +10107,31 @@
       <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="577" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
-          <t>BEFEJEZETT</t>
+          <t>FINAL XML STREET</t>
         </is>
       </c>
-      <c r="N14" s="583" t="inlineStr">
+      <c r="H14" s="577"/>
+      <c r="I14" s="577"/>
+      <c r="J14" s="577"/>
+      <c r="K14" s="577"/>
+      <c r="L14" s="577"/>
+      <c r="M14" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>66</t>
         </is>
       </c>
-      <c r="N14" s="581" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
+      <c r="O14" s="583"/>
+      <c r="P14" s="583"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="22"/>
     </row>
     <row r="15" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
@@ -10150,10 +10173,32 @@
       </c>
       <c r="M16" s="585"/>
       <c r="N16" s="585"/>
-      <c r="O16" s="577" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
-          <t>FINAL-PRODUCTION</t>
+          <t>FINAL-XML-LIFT-SUCCESS</t>
         </is>
+      </c>
+      <c r="P16" s="577"/>
+      <c r="Q16" s="577"/>
+      <c r="R16" s="577"/>
+      <c r="S16" s="577"/>
+      <c r="T16" s="577"/>
+      <c r="U16" s="22"/>
+    </row>
+    <row r="17" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="585" t="s">
+        <v>1200</v>
       </c>
       <c r="M17" s="585"/>
       <c r="N17" s="585"/>
@@ -10166,11 +10211,6 @@
       <c r="S17" s="577"/>
       <c r="T17" s="577"/>
       <c r="U17" s="22"/>
-      <c r="O16" s="582" t="inlineStr">
-        <is>
-          <t>FINAL-PRODUCTION</t>
-        </is>
-      </c>
     </row>
     <row r="18" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
@@ -10414,10 +10454,8 @@
       <c r="N25" s="587"/>
       <c r="O25" s="587"/>
       <c r="P25" s="587"/>
-      <c r="Q25" s="61" t="inlineStr">
-        <is>
-          <t>Igen</t>
-        </is>
+      <c r="Q25" s="61" t="s">
+        <v>34</v>
       </c>
       <c r="R25" s="586" t="s">
         <v>26</v>
@@ -10445,11 +10483,6 @@
       <c r="AO25" s="5"/>
       <c r="AP25" s="5"/>
       <c r="AQ25" s="22"/>
-      <c r="Q25" s="583" t="inlineStr">
-        <is>
-          <t>Igen</t>
-        </is>
-      </c>
     </row>
     <row r="26" spans="1:43" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -12429,10 +12462,8 @@
       <c r="U67" s="28"/>
     </row>
     <row r="68" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="93" t="inlineStr">
-        <is>
-          <t>Nem</t>
-        </is>
+      <c r="A68" s="93" t="s">
+        <v>34</v>
       </c>
       <c r="B68" s="94"/>
       <c r="C68" s="95"/>
@@ -12462,11 +12493,6 @@
       <c r="S68" s="597"/>
       <c r="T68" s="597"/>
       <c r="U68" s="597"/>
-      <c r="A68" s="584" t="inlineStr">
-        <is>
-          <t>Nem</t>
-        </is>
-      </c>
     </row>
     <row r="69" spans="1:21" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="598" t="s">
